--- a/models/Random Forests/Error_Only/metrics.xlsx
+++ b/models/Random Forests/Error_Only/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7323564927230967</v>
+        <v>0.7508462533855609</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9982512121176832</v>
+        <v>0.9983921586895131</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8454493928973555</v>
+        <v>0.8355953866285262</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8341042199344519</v>
+        <v>0.8638617109412063</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7974686696658098</v>
+        <v>0.8000506105398457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9169185016246837</v>
+        <v>0.9159345256067403</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9053074907946707</v>
+        <v>0.9058534905105945</v>
       </c>
       <c r="I2" t="n">
-        <v>0.831695831023214</v>
+        <v>0.8419143258791346</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9024415414489046</v>
+        <v>0.8999207935251872</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8833467769229033</v>
+        <v>0.8862034221926399</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7867830538328868</v>
+        <v>0.7661943598400057</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9020623495990479</v>
+        <v>0.8978330764233273</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7454014393970909</v>
+        <v>0.7588790919580749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9983130367986438</v>
+        <v>0.998360190248758</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8601547997626365</v>
+        <v>0.8611870834728098</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8580802555456082</v>
+        <v>0.8628267015345004</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8336527956298199</v>
+        <v>0.8178960475578406</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9129558639579021</v>
+        <v>0.9140485715723488</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9086416943105267</v>
+        <v>0.9101150682456207</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8085693338496471</v>
+        <v>0.8213480975986609</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9031412110617841</v>
+        <v>0.9021012069487103</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8873088166444799</v>
+        <v>0.8784831118431443</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7969546989101318</v>
+        <v>0.8136639481119957</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8863810440660815</v>
+        <v>0.8936034838402221</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7345175589366766</v>
+        <v>0.7404383220317088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9983354147071725</v>
+        <v>0.9982542377022546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8599465361674934</v>
+        <v>0.8583617357962326</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8604845365867673</v>
+        <v>0.8446243568072639</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8270179948586118</v>
+        <v>0.7915199228791773</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9124548898665745</v>
+        <v>0.9145315734989647</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9123153558836573</v>
+        <v>0.903149119602606</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8303342618652056</v>
+        <v>0.8456977969868675</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8951302175309338</v>
+        <v>0.8989899497936757</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8794850353105752</v>
+        <v>0.8830508181787414</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8516854886059227</v>
+        <v>0.8561532145609334</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8949925865546099</v>
+        <v>0.8973823926040581</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7278586505050151</v>
+        <v>0.7314056892750247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9982453322080441</v>
+        <v>0.9982471589760874</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8506402916831501</v>
+        <v>0.8356724156294695</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8291186269858709</v>
+        <v>0.8286985669040795</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7901767352185091</v>
+        <v>0.8174228791773779</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9133892177795031</v>
+        <v>0.9119867149758454</v>
       </c>
       <c r="H5" t="n">
-        <v>0.896727433206252</v>
+        <v>0.9022373826068033</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8241894243454715</v>
+        <v>0.8494082410967118</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8985700735137422</v>
+        <v>0.9027978960733558</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8879118391958665</v>
+        <v>0.8718369960064078</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8276049502770539</v>
+        <v>0.8371837272026714</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9008859722026141</v>
+        <v>0.9008853333878455</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.734319132770916</v>
+        <v>0.7332208097320234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9982972809242715</v>
+        <v>0.9982234109915262</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8660979200267794</v>
+        <v>0.8446111081525213</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8391433880136127</v>
+        <v>0.8012230658795523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8327080655526993</v>
+        <v>0.8041741645244217</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9202303222768576</v>
+        <v>0.9145715615654474</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9032407711062338</v>
+        <v>0.9042272192803489</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8127088115720886</v>
+        <v>0.825450100940607</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9064991036181637</v>
+        <v>0.9035715190505357</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8864530217052864</v>
+        <v>0.8877105378940006</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8020668966276467</v>
+        <v>0.828852610913361</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9035689942308638</v>
+        <v>0.8898149928548568</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7376154703439095</v>
+        <v>0.7358104764636462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9983396961947736</v>
+        <v>0.9983006490278511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8481430304920727</v>
+        <v>0.8597853458507044</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8580616207175806</v>
+        <v>0.8374895470261532</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8143806233933163</v>
+        <v>0.7560170308483289</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9133955080371521</v>
+        <v>0.9139993727714515</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9036516825869528</v>
+        <v>0.8996025104693383</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8130734661207578</v>
+        <v>0.8288770849928557</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8989815671705182</v>
+        <v>0.9006148747226282</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8838815826583336</v>
+        <v>0.8830464114076849</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7886946809291402</v>
+        <v>0.8380483743715826</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8939529155186633</v>
+        <v>0.8931633404646355</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7550444036705282</v>
+        <v>0.7524232624436469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9983873634234</v>
+        <v>0.9982082830686689</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8610762948479961</v>
+        <v>0.8483774459085237</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8604934657751971</v>
+        <v>0.8392963488936735</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8340584832904884</v>
+        <v>0.7624758997429306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9149114601305498</v>
+        <v>0.9110858602196917</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9099395838500495</v>
+        <v>0.9027616639569387</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8554363315079787</v>
+        <v>0.826324503152172</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9072444119571227</v>
+        <v>0.8977448508340151</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8878074868572461</v>
+        <v>0.8916272760091153</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8516499394517631</v>
+        <v>0.859446671681773</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8979784067831907</v>
+        <v>0.8897060749368052</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7418724642504472</v>
+        <v>0.7436522785345037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9982440763050145</v>
+        <v>0.9982502987336617</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8427975982167309</v>
+        <v>0.8539777395697027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8474809206536786</v>
+        <v>0.8497295232356895</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8063439910025707</v>
+        <v>0.8077811696658097</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9124202934495054</v>
+        <v>0.9198771692402805</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9085476537866622</v>
+        <v>0.9066996380417158</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8507991171420307</v>
+        <v>0.8310256161412727</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9009293162312919</v>
+        <v>0.894301455521429</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8800727222986846</v>
+        <v>0.880156274677918</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7808956552053136</v>
+        <v>0.8338237587611463</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9041327482641806</v>
+        <v>0.8984405892682952</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7528518629616898</v>
+        <v>0.730889233861521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9983818831192705</v>
+        <v>0.9982501845606588</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8599969378594686</v>
+        <v>0.8546605398496698</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8437966598623662</v>
+        <v>0.8430326319132299</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7954346079691517</v>
+        <v>0.7711407455012855</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9166466726334254</v>
+        <v>0.9085949181907063</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9106250154743358</v>
+        <v>0.9076135468740973</v>
       </c>
       <c r="I10" t="n">
-        <v>0.849524988205179</v>
+        <v>0.853426647743706</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9049129250362502</v>
+        <v>0.9046638679882151</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8801125595090364</v>
+        <v>0.8782691190406352</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8192807144691938</v>
+        <v>0.8245454295255219</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9060923125669558</v>
+        <v>0.8951765652079757</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7392838922838769</v>
+        <v>0.7357305586148156</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9982481294466103</v>
+        <v>0.9982759305727672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8467122881226986</v>
+        <v>0.8560893802684033</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8634998846970017</v>
+        <v>0.8438595524069599</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8058073586118253</v>
+        <v>0.8123264781491002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9168210026311249</v>
+        <v>0.9152295674459398</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9041129806763013</v>
+        <v>0.9053561399340371</v>
       </c>
       <c r="I11" t="n">
-        <v>0.829583332932966</v>
+        <v>0.8178581758048102</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8964574661975379</v>
+        <v>0.899391756863692</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8867516245120823</v>
+        <v>0.8869497529387873</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8382157994202047</v>
+        <v>0.7107514403141169</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8957396804265237</v>
+        <v>0.8993435539437549</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7445382171532167</v>
+        <v>0.7293716158075315</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9983013340658674</v>
+        <v>0.9983526548305799</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8535906926143453</v>
+        <v>0.8470517863120416</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8494779530573152</v>
+        <v>0.8148078555117549</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8029000642673522</v>
+        <v>0.7969882712082261</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9112494069185646</v>
+        <v>0.9151136469835518</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9070710220966998</v>
+        <v>0.9049951806946315</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8335455280092168</v>
+        <v>0.8322776448024476</v>
       </c>
       <c r="J12" t="n">
-        <v>0.90702776771863</v>
+        <v>0.900971415627594</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8815047466212406</v>
+        <v>0.8877285175199116</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7573598216579207</v>
+        <v>0.7794163516935158</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9027576994747026</v>
+        <v>0.8960619624772981</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7439454018773033</v>
+        <v>0.7283874220253592</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9982486146818718</v>
+        <v>0.9982596038333813</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8557413233011777</v>
+        <v>0.84740935303247</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8316032707228993</v>
+        <v>0.8527980582509196</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8153550771208226</v>
+        <v>0.7995846722365039</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9125714842851391</v>
+        <v>0.9150094084282263</v>
       </c>
       <c r="H13" t="n">
-        <v>0.902264313380381</v>
+        <v>0.9075835755293091</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8454633418883821</v>
+        <v>0.8380554255696346</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9015837196791208</v>
+        <v>0.8902476189624623</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8823036060783828</v>
+        <v>0.8778799130209156</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8424622032219001</v>
+        <v>0.7820848317492936</v>
       </c>
       <c r="M13" t="n">
-        <v>0.892560299323048</v>
+        <v>0.8984527267488992</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7499994526174738</v>
+        <v>0.7320346317976698</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9982922002256516</v>
+        <v>0.9982835801639478</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8522398321718755</v>
+        <v>0.8490873489851192</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8007890296767401</v>
+        <v>0.855056754698112</v>
       </c>
       <c r="F14" t="n">
-        <v>0.834910025706941</v>
+        <v>0.8087475899742931</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9130225856193926</v>
+        <v>0.9106751962560387</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9051359157049412</v>
+        <v>0.9089374984525664</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8395558421117871</v>
+        <v>0.8177904336554528</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9015446007710524</v>
+        <v>0.9007974296269472</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8822803383272039</v>
+        <v>0.8861738086911396</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8214205442002128</v>
+        <v>0.7891040695754286</v>
       </c>
       <c r="M14" t="n">
-        <v>0.895206270094717</v>
+        <v>0.9116669296454131</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7430898429887962</v>
+        <v>0.7351774285720541</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9983696666079819</v>
+        <v>0.9983004777683471</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8498086637655579</v>
+        <v>0.8426145354675756</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8249071558516078</v>
+        <v>0.8518531171796808</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8356113431876607</v>
+        <v>0.8147855077120822</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9142487365568208</v>
+        <v>0.9137158618731309</v>
       </c>
       <c r="H15" t="n">
-        <v>0.909534970695409</v>
+        <v>0.9074458810902098</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8299715290796388</v>
+        <v>0.8384051864542605</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9072952665376115</v>
+        <v>0.9058132187633656</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8830992926603642</v>
+        <v>0.885370013650414</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7347597335877583</v>
+        <v>0.8235936295915746</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9072725228520012</v>
+        <v>0.9041522321146238</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7435608656526222</v>
+        <v>0.738433259838106</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9982824955204223</v>
+        <v>0.9983476883049625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8363613972490186</v>
+        <v>0.859826237789477</v>
       </c>
       <c r="E16" t="n">
-        <v>0.853947982430463</v>
+        <v>0.8495128933598672</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8077691195372751</v>
+        <v>0.8206973007712082</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9112294128853232</v>
+        <v>0.9097709717190017</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9004947009359312</v>
+        <v>0.9058252566350693</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8425167986117184</v>
+        <v>0.8122418231382199</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9023843533309193</v>
+        <v>0.8981134999724303</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8851479123891609</v>
+        <v>0.8831497061212517</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8217725955010825</v>
+        <v>0.7801571501963231</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8847124598904177</v>
+        <v>0.901705890958152</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7418193681454024</v>
+        <v>0.7457301426040958</v>
       </c>
       <c r="C17" t="n">
-        <v>0.998284265201964</v>
+        <v>0.9983172611997435</v>
       </c>
       <c r="D17" t="n">
-        <v>0.83890430525547</v>
+        <v>0.8531104500775996</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8661165251325597</v>
+        <v>0.8354995026830271</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8037234897172237</v>
+        <v>0.7757101542416452</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9119386394352427</v>
+        <v>0.9148272156084656</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9026730530245213</v>
+        <v>0.9034384082349093</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8546080516108699</v>
+        <v>0.7998157029184855</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9035324001424674</v>
+        <v>0.9019875758347976</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8829166760677782</v>
+        <v>0.8851091328038627</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7913918296576272</v>
+        <v>0.9101030696121244</v>
       </c>
       <c r="M17" t="n">
-        <v>0.904506774311214</v>
+        <v>0.8946865942804358</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7507146078880012</v>
+        <v>0.7438140300710064</v>
       </c>
       <c r="C18" t="n">
-        <v>0.998250869598675</v>
+        <v>0.9983503713705258</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8597958065792276</v>
+        <v>0.8557051862390066</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8124753962036196</v>
+        <v>0.860059429572385</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8056322300771209</v>
+        <v>0.8244995179948584</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9096579717333794</v>
+        <v>0.9121614942776627</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9070692846274366</v>
+        <v>0.9047358634071163</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8292090695687852</v>
+        <v>0.8407872118196118</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8948027363862474</v>
+        <v>0.9021475907968486</v>
       </c>
       <c r="K18" t="n">
-        <v>0.889590995239277</v>
+        <v>0.8782796952911712</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7949077556786908</v>
+        <v>0.8083384554695241</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8968707019743848</v>
+        <v>0.896788933684</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7445866605067886</v>
+        <v>0.7350920368979613</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9982616018609287</v>
+        <v>0.9983207434763259</v>
       </c>
       <c r="D19" t="n">
-        <v>0.854980543044947</v>
+        <v>0.8391044855603907</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8460211924581745</v>
+        <v>0.8186054781735694</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7794440874035989</v>
+        <v>0.8149566195372752</v>
       </c>
       <c r="G19" t="n">
-        <v>0.914241996995054</v>
+        <v>0.9173383763227513</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9063816811665717</v>
+        <v>0.9068581821119721</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8572744979153675</v>
+        <v>0.8373352448470325</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9010088580110309</v>
+        <v>0.8941516859876815</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8822806908688883</v>
+        <v>0.8881466319577627</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8094657076804522</v>
+        <v>0.8093900223844996</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8923852640764431</v>
+        <v>0.9003809891280115</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7206895815589016</v>
+        <v>0.7469185100685541</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9982078834631595</v>
+        <v>0.9983451194124018</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8476066804114299</v>
+        <v>0.8479903989531665</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8530185703825808</v>
+        <v>0.8460615679189013</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8356250000000001</v>
+        <v>0.8120276349614395</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9139876908643891</v>
+        <v>0.9137985338308029</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9087224866312599</v>
+        <v>0.9018182181470846</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8277619819527227</v>
+        <v>0.8458510575942793</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9043531520898438</v>
+        <v>0.9033355016385235</v>
       </c>
       <c r="K20" t="n">
-        <v>0.88882210182532</v>
+        <v>0.8763590481938585</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8211556456643793</v>
+        <v>0.7807626325639426</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8916889559786355</v>
+        <v>0.8832559622179392</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7342693209610285</v>
+        <v>0.7340385992262201</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9983498575920138</v>
+        <v>0.9982068559061352</v>
       </c>
       <c r="D21" t="n">
-        <v>0.849571395423146</v>
+        <v>0.8474887594717142</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8353061663422394</v>
+        <v>0.8252503472677848</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8233901028277636</v>
+        <v>0.8202546593830333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.909526325626869</v>
+        <v>0.9169205234932137</v>
       </c>
       <c r="H21" t="n">
-        <v>0.906422511694254</v>
+        <v>0.9012379034132149</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8274405670738563</v>
+        <v>0.8314575323985237</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8937932822775697</v>
+        <v>0.8937577026992791</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8821788063220595</v>
+        <v>0.8847058251167619</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7989351308208873</v>
+        <v>0.8286221147847787</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8938178061950979</v>
+        <v>0.9021562553700366</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Error_Only/metrics.xlsx
+++ b/models/Random Forests/Error_Only/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7508462533855609</v>
+        <v>0.7545008528219759</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9983921586895131</v>
+        <v>0.9984474184228188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8355953866285262</v>
+        <v>0.8506288799793068</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8638617109412063</v>
+        <v>0.8255384106510466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8000506105398457</v>
+        <v>0.8337965938303343</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9159345256067403</v>
+        <v>0.9130809951547045</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9058534905105945</v>
+        <v>0.9020262800913387</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8419143258791346</v>
+        <v>0.8389403974782625</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8999207935251872</v>
+        <v>0.9146390032651248</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8862034221926399</v>
+        <v>0.8820515387739446</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7661943598400057</v>
+        <v>0.8132144233239146</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8978330764233273</v>
+        <v>0.8998220262054594</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7588790919580749</v>
+        <v>0.730172983825941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.998360190248758</v>
+        <v>0.9982098244042054</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8611870834728098</v>
+        <v>0.8467051558077964</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8628267015345004</v>
+        <v>0.8690569457050993</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8178960475578406</v>
+        <v>0.8402361825192801</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9140485715723488</v>
+        <v>0.9132461144179894</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9101150682456207</v>
+        <v>0.9155737623029112</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8213480975986609</v>
+        <v>0.8328695478379685</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9021012069487103</v>
+        <v>0.8998554090645589</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8784831118431443</v>
+        <v>0.8861681680241873</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8136639481119957</v>
+        <v>0.79018659865693</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8936034838402221</v>
+        <v>0.8998852688675538</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7404383220317088</v>
+        <v>0.752576529550993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9982542377022546</v>
+        <v>0.9983512276680461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8583617357962326</v>
+        <v>0.8545958735278902</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8446243568072639</v>
+        <v>0.8215024174807111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7915199228791773</v>
+        <v>0.8040745501285347</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9145315734989647</v>
+        <v>0.9144675476621807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.903149119602606</v>
+        <v>0.9045890472543859</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8456977969868675</v>
+        <v>0.8324467599554535</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8989899497936757</v>
+        <v>0.9018657483782417</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8830508181787414</v>
+        <v>0.8866455094650392</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8561532145609334</v>
+        <v>0.8018524549557814</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8973823926040581</v>
+        <v>0.8945112396264467</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7314056892750247</v>
+        <v>0.7339006588296085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9982471589760874</v>
+        <v>0.9982748459292414</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8356724156294695</v>
+        <v>0.8539549161620158</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8286985669040795</v>
+        <v>0.8275525249803751</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8174228791773779</v>
+        <v>0.751193766066838</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9119867149758454</v>
+        <v>0.916955119910283</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9022373826068033</v>
+        <v>0.9038645225716804</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8494082410967118</v>
+        <v>0.8171889218044203</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9027978960733558</v>
+        <v>0.8985426902780944</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8718369960064078</v>
+        <v>0.8847562385776494</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8371837272026714</v>
+        <v>0.8096331327290742</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9008853333878455</v>
+        <v>0.9016346631114496</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7332208097320234</v>
+        <v>0.7529131698046282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9982234109915262</v>
+        <v>0.9983406381220459</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8446111081525213</v>
+        <v>0.8540576214966069</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8012230658795523</v>
+        <v>0.8305022629669285</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8041741645244217</v>
+        <v>0.78645485218509</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9145715615654474</v>
+        <v>0.9196219645013802</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9042272192803489</v>
+        <v>0.909099517461349</v>
       </c>
       <c r="I6" t="n">
-        <v>0.825450100940607</v>
+        <v>0.8282880646019884</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9035715190505357</v>
+        <v>0.8952350934606598</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8877105378940006</v>
+        <v>0.8854003322352835</v>
       </c>
       <c r="L6" t="n">
-        <v>0.828852610913361</v>
+        <v>0.8268412168360795</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8898149928548568</v>
+        <v>0.8999935479708369</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7358104764636462</v>
+        <v>0.7446698626507765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9983006490278511</v>
+        <v>0.998303103747409</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8597853458507044</v>
+        <v>0.852904088433097</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8374895470261532</v>
+        <v>0.8341841944047376</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7560170308483289</v>
+        <v>0.752963528277635</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9139993727714515</v>
+        <v>0.9142799631930066</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8996025104693383</v>
+        <v>0.904369040208948</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8288770849928557</v>
+        <v>0.8282126354002216</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9006148747226282</v>
+        <v>0.8945600128757091</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8830464114076849</v>
+        <v>0.8862340933191941</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8380483743715826</v>
+        <v>0.7816639756339216</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8931633404646355</v>
+        <v>0.9064053318035848</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7524232624436469</v>
+        <v>0.7409635355656323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9982082830686689</v>
+        <v>0.9982212987909764</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8483774459085237</v>
+        <v>0.8532916108761146</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8392963488936735</v>
+        <v>0.8336158321498922</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7624758997429306</v>
+        <v>0.7595830655526993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9110858602196917</v>
+        <v>0.9162744241718427</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9027616639569387</v>
+        <v>0.9101780515064075</v>
       </c>
       <c r="I8" t="n">
-        <v>0.826324503152172</v>
+        <v>0.8323324150508644</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8977448508340151</v>
+        <v>0.9041264487035621</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8916272760091153</v>
+        <v>0.8797462686988109</v>
       </c>
       <c r="L8" t="n">
-        <v>0.859446671681773</v>
+        <v>0.8137384866610401</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8897060749368052</v>
+        <v>0.9024098648331831</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7436522785345037</v>
+        <v>0.738757583984901</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9982502987336617</v>
+        <v>0.9981519386918376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8539777395697027</v>
+        <v>0.8546952504488604</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8497295232356895</v>
+        <v>0.8511589698356485</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8077811696658097</v>
+        <v>0.8023465616966581</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9198771692402805</v>
+        <v>0.9085326895703933</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9066996380417158</v>
+        <v>0.9038977516713368</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8310256161412727</v>
+        <v>0.8406305881267711</v>
       </c>
       <c r="J9" t="n">
-        <v>0.894301455521429</v>
+        <v>0.9000549154957072</v>
       </c>
       <c r="K9" t="n">
-        <v>0.880156274677918</v>
+        <v>0.8875226331761468</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8338237587611463</v>
+        <v>0.7985704653040256</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8984405892682952</v>
+        <v>0.8920888540237984</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.730889233861521</v>
+        <v>0.7259151688456139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9982501845606588</v>
+        <v>0.9982715919986647</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8546605398496698</v>
+        <v>0.8538845439883143</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8430326319132299</v>
+        <v>0.8575204342536091</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7711407455012855</v>
+        <v>0.7428036632390745</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9085949181907063</v>
+        <v>0.9115378601621809</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9076135468740973</v>
+        <v>0.9085986919462653</v>
       </c>
       <c r="I10" t="n">
-        <v>0.853426647743706</v>
+        <v>0.8325904117473535</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9046638679882151</v>
+        <v>0.9067584060945024</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8782691190406352</v>
+        <v>0.8805352569887864</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8245454295255219</v>
+        <v>0.8475571997357895</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8951765652079757</v>
+        <v>0.893558766806418</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7357305586148156</v>
+        <v>0.7463152945246421</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9982759305727672</v>
+        <v>0.9982886037760664</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8560893802684033</v>
+        <v>0.8528460789385593</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8438595524069599</v>
+        <v>0.8467137868998711</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8123264781491002</v>
+        <v>0.8092312017994858</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9152295674459398</v>
+        <v>0.9046886681907063</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9053561399340371</v>
+        <v>0.901237903413215</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8178581758048102</v>
+        <v>0.823422160426862</v>
       </c>
       <c r="J11" t="n">
-        <v>0.899391756863692</v>
+        <v>0.9094717680703276</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8869497529387873</v>
+        <v>0.8825606089664042</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7107514403141169</v>
+        <v>0.8150136692231478</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8993435539437549</v>
+        <v>0.9005898815573536</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7293716158075315</v>
+        <v>0.7488756762911112</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9983526548305799</v>
+        <v>0.9982904876306111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8470517863120416</v>
+        <v>0.8568629986914581</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8148078555117549</v>
+        <v>0.8564683429212111</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7969882712082261</v>
+        <v>0.7934840938303344</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9151136469835518</v>
+        <v>0.9133508022774327</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9049951806946315</v>
+        <v>0.9076150671597026</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8322776448024476</v>
+        <v>0.8168194628479952</v>
       </c>
       <c r="J12" t="n">
-        <v>0.900971415627594</v>
+        <v>0.9020339596829358</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8877285175199116</v>
+        <v>0.8859587582635772</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7794163516935158</v>
+        <v>0.7817866775531174</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8960619624772981</v>
+        <v>0.9079001583621811</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7283874220253592</v>
+        <v>0.7473421841438609</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9982596038333813</v>
+        <v>0.998329934403043</v>
       </c>
       <c r="D13" t="n">
-        <v>0.84740935303247</v>
+        <v>0.8446111081525212</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8527980582509196</v>
+        <v>0.860398738732723</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7995846722365039</v>
+        <v>0.8679530848329049</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9150094084282263</v>
+        <v>0.9133770865683231</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9075835755293091</v>
+        <v>0.9069928359798611</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8380554255696346</v>
+        <v>0.8247563444606619</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8902476189624623</v>
+        <v>0.902823602784372</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8778799130209156</v>
+        <v>0.8828306558967532</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7820848317492936</v>
+        <v>0.8016884701478846</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8984527267488992</v>
+        <v>0.893234568311338</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7320346317976698</v>
+        <v>0.7303298089197079</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9982835801639478</v>
+        <v>0.9984451920492661</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8490873489851192</v>
+        <v>0.8499322905571954</v>
       </c>
       <c r="E14" t="n">
-        <v>0.855056754698112</v>
+        <v>0.8404742253152586</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8087475899742931</v>
+        <v>0.811226703084833</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9106751962560387</v>
+        <v>0.9121707050120774</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9089374984525664</v>
+        <v>0.9075770600195725</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8177904336554528</v>
+        <v>0.8271595092201389</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9007974296269472</v>
+        <v>0.8990024305881545</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8861738086911396</v>
+        <v>0.8819894914374676</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7891040695754286</v>
+        <v>0.8157888701332062</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9116669296454131</v>
+        <v>0.8932981303808167</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7351774285720541</v>
+        <v>0.7439607285880379</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9983004777683471</v>
+        <v>0.9983124659336303</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8426145354675756</v>
+        <v>0.8472415058884392</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8518531171796808</v>
+        <v>0.8290968863531718</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8147855077120822</v>
+        <v>0.7736359254498715</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9137158618731309</v>
+        <v>0.9135806213336785</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9074458810902098</v>
+        <v>0.9063682157797828</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8384051864542605</v>
+        <v>0.8268693229916855</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9058132187633656</v>
+        <v>0.8971640281894577</v>
       </c>
       <c r="K15" t="n">
-        <v>0.885370013650414</v>
+        <v>0.875367348435279</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8235936295915746</v>
+        <v>0.7117066804887893</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9041522321146238</v>
+        <v>0.9004359271981136</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.738433259838106</v>
+        <v>0.7348528307339961</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9983476883049625</v>
+        <v>0.9982721057771767</v>
       </c>
       <c r="D16" t="n">
-        <v>0.859826237789477</v>
+        <v>0.8445749710903504</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8495128933598672</v>
+        <v>0.8484693429903154</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8206973007712082</v>
+        <v>0.7843187660668381</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9097709717190017</v>
+        <v>0.9134736869536462</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9058252566350693</v>
+        <v>0.9024102607984801</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8122418231382199</v>
+        <v>0.8460658146209659</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8981134999724303</v>
+        <v>0.8942936317398154</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8831497061212517</v>
+        <v>0.8783713561291486</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7801571501963231</v>
+        <v>0.756026155003486</v>
       </c>
       <c r="M16" t="n">
-        <v>0.901705890958152</v>
+        <v>0.8999842851566917</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7457301426040958</v>
+        <v>0.7510071838482744</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9983172611997435</v>
+        <v>0.9983689815699656</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8531104500775996</v>
+        <v>0.8425241928121482</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8354995026830271</v>
+        <v>0.8485726109956355</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7757101542416452</v>
+        <v>0.7706683804627249</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9148272156084656</v>
+        <v>0.9098495999396135</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9034384082349093</v>
+        <v>0.9015382684120704</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7998157029184855</v>
+        <v>0.8370522652302128</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9019875758347976</v>
+        <v>0.8955415249071951</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8851091328038627</v>
+        <v>0.8906775287109949</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9101030696121244</v>
+        <v>0.7555215863638032</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8946865942804358</v>
+        <v>0.893304518528503</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7438140300710064</v>
+        <v>0.7236886904201489</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9983503713705258</v>
+        <v>0.998270507355139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8557051862390066</v>
+        <v>0.8546077607193938</v>
       </c>
       <c r="E18" t="n">
-        <v>0.860059429572385</v>
+        <v>0.8345887254631726</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8244995179948584</v>
+        <v>0.8473272814910026</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9121614942776627</v>
+        <v>0.9129985478490914</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9047358634071163</v>
+        <v>0.909114285950085</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8407872118196118</v>
+        <v>0.8225948414113045</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9021475907968486</v>
+        <v>0.8965809701787251</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8782796952911712</v>
+        <v>0.8798333464948895</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8083384554695241</v>
+        <v>0.8269295163480238</v>
       </c>
       <c r="M18" t="n">
-        <v>0.896788933684</v>
+        <v>0.892553272360593</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7350920368979613</v>
+        <v>0.7392970294645066</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9983207434763259</v>
+        <v>0.9983047592559483</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8391044855603907</v>
+        <v>0.8569414541553817</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8186054781735694</v>
+        <v>0.8440559945524186</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8149566195372752</v>
+        <v>0.7922067802056554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9173383763227513</v>
+        <v>0.9108266117437313</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9068581821119721</v>
+        <v>0.8979679862600931</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8373352448470325</v>
+        <v>0.8293921175042832</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8941516859876815</v>
+        <v>0.8910014962050934</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8881466319577627</v>
+        <v>0.8890145895850725</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8093900223844996</v>
+        <v>0.7813669681846538</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9003809891280115</v>
+        <v>0.8890043369134643</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7469185100685541</v>
+        <v>0.7226806854980853</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9983451194124018</v>
+        <v>0.9982364838003351</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8479903989531665</v>
+        <v>0.8443586242049846</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8460615679189013</v>
+        <v>0.8578030624786961</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8120276349614395</v>
+        <v>0.8266468508997429</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9137985338308029</v>
+        <v>0.9181913801903612</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9018182181470846</v>
+        <v>0.9041151525128801</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8458510575942793</v>
+        <v>0.8392714211726406</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9033355016385235</v>
+        <v>0.9023910594294451</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8763590481938585</v>
+        <v>0.8851116005956544</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7807626325639426</v>
+        <v>0.8332010751899013</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8832559622179392</v>
+        <v>0.8893713359980427</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7340385992262201</v>
+        <v>0.7258787679076193</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9982068559061352</v>
+        <v>0.9983619599302997</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8474887594717142</v>
+        <v>0.8553338303764342</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8252503472677848</v>
+        <v>0.8606076040968669</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8202546593830333</v>
+        <v>0.8168838367609256</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9169205234932137</v>
+        <v>0.9198888511473429</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9012379034132149</v>
+        <v>0.903607594304402</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8314575323985237</v>
+        <v>0.8345361968884735</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8937577026992791</v>
+        <v>0.9008069299331924</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8847058251167619</v>
+        <v>0.8868461056835361</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8286221147847787</v>
+        <v>0.8208265293016769</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9021562553700366</v>
+        <v>0.888906917661248</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Error_Only/metrics.xlsx
+++ b/models/Random Forests/Error_Only/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7545008528219759</v>
+        <v>0.7336830742754298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984474184228188</v>
+        <v>0.9982908301496192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8506288799793068</v>
+        <v>0.8548169752898572</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8255384106510466</v>
+        <v>0.836295365130044</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8337965938303343</v>
+        <v>0.8144705976863752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9130809951547045</v>
+        <v>0.9133595637077294</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9020262800913387</v>
+        <v>0.9051828273750443</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8389403974782625</v>
+        <v>0.8271974640414101</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9146390032651248</v>
+        <v>0.8985162384450197</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8820515387739446</v>
+        <v>0.8887970713657183</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8132144233239146</v>
+        <v>0.8095838226120142</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8998220262054594</v>
+        <v>0.8928595840421515</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.730172983825941</v>
+        <v>0.74948737626418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9982098244042054</v>
+        <v>0.9982420211909661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8467051558077964</v>
+        <v>0.8534846588661331</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8690569457050993</v>
+        <v>0.8534541594877286</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8402361825192801</v>
+        <v>0.7853936375321336</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9132461144179894</v>
+        <v>0.9212920279071773</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9155737623029112</v>
+        <v>0.9068938002318653</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8328695478379685</v>
+        <v>0.8136110793486377</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8998554090645589</v>
+        <v>0.9020239005351467</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8861681680241873</v>
+        <v>0.8792548255905778</v>
       </c>
       <c r="L3" t="n">
-        <v>0.79018659865693</v>
+        <v>0.8122500091739754</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8998852688675538</v>
+        <v>0.8959492116706348</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.752576529550993</v>
+        <v>0.7304009686481183</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9983512276680461</v>
+        <v>0.9983367276967036</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8545958735278902</v>
+        <v>0.8571506687258452</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8215024174807111</v>
+        <v>0.8363202115674142</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8040745501285347</v>
+        <v>0.8127779562982005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9144675476621807</v>
+        <v>0.9224887494248907</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9045890472543859</v>
+        <v>0.9068199577881841</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8324467599554535</v>
+        <v>0.8342753175473306</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9018657483782417</v>
+        <v>0.8992075254347415</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8866455094650392</v>
+        <v>0.890324281943097</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8018524549557814</v>
+        <v>0.7871878554915417</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8945112396264467</v>
+        <v>0.897997890633634</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7339006588296085</v>
+        <v>0.7388235435793125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9982748459292414</v>
+        <v>0.9982873478730369</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8539549161620158</v>
+        <v>0.8520253872371504</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8275525249803751</v>
+        <v>0.8438036479228768</v>
       </c>
       <c r="F5" t="n">
-        <v>0.751193766066838</v>
+        <v>0.7629024742930591</v>
       </c>
       <c r="G5" t="n">
-        <v>0.916955119910283</v>
+        <v>0.913622631268691</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9038645225716804</v>
+        <v>0.8970102063288187</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8171889218044203</v>
+        <v>0.8511311017179601</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8985426902780944</v>
+        <v>0.9027487180174987</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8847562385776494</v>
+        <v>0.8850544888427606</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8096331327290742</v>
+        <v>0.7918184195075409</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9016346631114496</v>
+        <v>0.9000373067824881</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7529131698046282</v>
+        <v>0.747439618233531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9983406381220459</v>
+        <v>0.9982645703589987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8540576214966069</v>
+        <v>0.8542273705912784</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8305022629669285</v>
+        <v>0.835008009093796</v>
       </c>
       <c r="F6" t="n">
-        <v>0.78645485218509</v>
+        <v>0.8165287596401027</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9196219645013802</v>
+        <v>0.9204293640010351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.909099517461349</v>
+        <v>0.9122578022143177</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8282880646019884</v>
+        <v>0.8312701604960455</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8952350934606598</v>
+        <v>0.9014220281924383</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8854003322352835</v>
+        <v>0.8781957903702534</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8268412168360795</v>
+        <v>0.8186110142747055</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8999935479708369</v>
+        <v>0.8919150964067308</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7446698626507765</v>
+        <v>0.7405264506184328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.998303103747409</v>
+        <v>0.9982338578212732</v>
       </c>
       <c r="D7" t="n">
-        <v>0.852904088433097</v>
+        <v>0.8544508497915461</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8341841944047376</v>
+        <v>0.8232944667760428</v>
       </c>
       <c r="F7" t="n">
-        <v>0.752963528277635</v>
+        <v>0.8174285025706941</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9142799631930066</v>
+        <v>0.9156997642051991</v>
       </c>
       <c r="H7" t="n">
-        <v>0.904369040208948</v>
+        <v>0.9031208857270808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8282126354002216</v>
+        <v>0.8192822022636447</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8945600128757091</v>
+        <v>0.9000998090997288</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8862340933191941</v>
+        <v>0.8906461525010717</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7816639756339216</v>
+        <v>0.7713673351436645</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9064053318035848</v>
+        <v>0.900245879804446</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7409635355656323</v>
+        <v>0.7445376697706907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9982212987909764</v>
+        <v>0.998350713889534</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8532916108761146</v>
+        <v>0.8436344564985849</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8336158321498922</v>
+        <v>0.823640763996891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7595830655526993</v>
+        <v>0.8016637210796915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9162744241718427</v>
+        <v>0.9122095698182655</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9101780515064075</v>
+        <v>0.908648644187579</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8323324150508644</v>
+        <v>0.8590660615675244</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9041264487035621</v>
+        <v>0.9017085276239101</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8797462686988109</v>
+        <v>0.8901025332235283</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8137384866610401</v>
+        <v>0.8502314135261091</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9024098648331831</v>
+        <v>0.9103484159629589</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.738757583984901</v>
+        <v>0.7473364366273355</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9981519386918376</v>
+        <v>0.998323540714892</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8546952504488604</v>
+        <v>0.850520944280454</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8511589698356485</v>
+        <v>0.8331887840075906</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8023465616966581</v>
+        <v>0.8143235861182518</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9085326895703933</v>
+        <v>0.9100326913676098</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9038977516713368</v>
+        <v>0.9005116412612464</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8406305881267711</v>
+        <v>0.8393516547821633</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9000549154957072</v>
+        <v>0.8972331382603784</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8875226331761468</v>
+        <v>0.8913293782856884</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7985704653040256</v>
+        <v>0.8009430846574439</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8920888540237984</v>
+        <v>0.8958386967156615</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7259151688456139</v>
+        <v>0.7323017544704731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9982715919986647</v>
+        <v>0.9984414243401771</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8538845439883143</v>
+        <v>0.8597920026779464</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8575204342536091</v>
+        <v>0.848240289895808</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7428036632390745</v>
+        <v>0.7861134318766066</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9115378601621809</v>
+        <v>0.9097631088969405</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9085986919462653</v>
+        <v>0.9024476163876364</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8325904117473535</v>
+        <v>0.8463204482320259</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9067584060945024</v>
+        <v>0.9022360740412887</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8805352569887864</v>
+        <v>0.8747645021547348</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8475571997357895</v>
+        <v>0.7553920039631573</v>
       </c>
       <c r="M10" t="n">
-        <v>0.893558766806418</v>
+        <v>0.8927806904182256</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7463152945246421</v>
+        <v>0.7367834489040307</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9982886037760664</v>
+        <v>0.9982387101738878</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8528460789385593</v>
+        <v>0.8543890363957274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8467137868998711</v>
+        <v>0.8327407716837576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8092312017994858</v>
+        <v>0.7667922557840615</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9046886681907063</v>
+        <v>0.9189255431188176</v>
       </c>
       <c r="H11" t="n">
-        <v>0.901237903413215</v>
+        <v>0.9002497177698365</v>
       </c>
       <c r="I11" t="n">
-        <v>0.823422160426862</v>
+        <v>0.8563088119564413</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9094717680703276</v>
+        <v>0.9025501429889229</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8825606089664042</v>
+        <v>0.8875057111752893</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8150136692231478</v>
+        <v>0.8313146765256321</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9005898815573536</v>
+        <v>0.8852356491859263</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7488756762911112</v>
+        <v>0.7261732597067343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9982904876306111</v>
+        <v>0.9982900309386004</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8568629986914581</v>
+        <v>0.855746078177779</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8564683429212111</v>
+        <v>0.8472689494848635</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7934840938303344</v>
+        <v>0.8214685089974292</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9133508022774327</v>
+        <v>0.9103186734385783</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9076150671597026</v>
+        <v>0.9094113931940724</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8168194628479952</v>
+        <v>0.8295814111698636</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9020339596829358</v>
+        <v>0.9013219955560919</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8859587582635772</v>
+        <v>0.8862964931973556</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7817866775531174</v>
+        <v>0.8294466258118968</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9079001583621811</v>
+        <v>0.8899520186227282</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7473421841438609</v>
+        <v>0.7415407504395481</v>
       </c>
       <c r="C13" t="n">
-        <v>0.998329934403043</v>
+        <v>0.9982576058058341</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8446111081525212</v>
+        <v>0.8481301923252488</v>
       </c>
       <c r="E13" t="n">
-        <v>0.860398738732723</v>
+        <v>0.8548308074082759</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8679530848329049</v>
+        <v>0.7329233611825193</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9133770865683231</v>
+        <v>0.9090693833390844</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9069928359798611</v>
+        <v>0.9004603859179853</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8247563444606619</v>
+        <v>0.8102158043875773</v>
       </c>
       <c r="J13" t="n">
-        <v>0.902823602784372</v>
+        <v>0.9074482028401072</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8828306558967532</v>
+        <v>0.8903574208614425</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8016884701478846</v>
+        <v>0.8291209496899197</v>
       </c>
       <c r="M13" t="n">
-        <v>0.893234568311338</v>
+        <v>0.8998431070928243</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7303298089197079</v>
+        <v>0.7324213575524557</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9984451920492661</v>
+        <v>0.99822695035461</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8499322905571954</v>
+        <v>0.8578477336356167</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8404742253152586</v>
+        <v>0.8483963565805401</v>
       </c>
       <c r="F14" t="n">
-        <v>0.811226703084833</v>
+        <v>0.8234768637532134</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9121707050120774</v>
+        <v>0.9147667842046239</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9075770600195725</v>
+        <v>0.9072243537591668</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8271595092201389</v>
+        <v>0.8512473683856518</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8990024305881545</v>
+        <v>0.8969775613943319</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8819894914374676</v>
+        <v>0.891489784752149</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8157888701332062</v>
+        <v>0.7776583886829841</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8932981303808167</v>
+        <v>0.8961612981738203</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7439607285880379</v>
+        <v>0.7359640172622552</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9983124659336303</v>
+        <v>0.9982960250212419</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8472415058884392</v>
+        <v>0.8567460287270625</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8290968863531718</v>
+        <v>0.874082914114407</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7736359254498715</v>
+        <v>0.8044866645244215</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9135806213336785</v>
+        <v>0.9161117760812053</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9063682157797828</v>
+        <v>0.9063590940661516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8268693229916855</v>
+        <v>0.8265834607302123</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8971640281894577</v>
+        <v>0.8978810218901958</v>
       </c>
       <c r="K15" t="n">
-        <v>0.875367348435279</v>
+        <v>0.8918529026872138</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7117066804887893</v>
+        <v>0.735830795200176</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9004359271981136</v>
+        <v>0.8900628529850856</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7348528307339961</v>
+        <v>0.7303404828789694</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9982721057771767</v>
+        <v>0.9982417928449605</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8445749710903504</v>
+        <v>0.8455112062931743</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8484693429903154</v>
+        <v>0.8517521785278641</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7843187660668381</v>
+        <v>0.7800048200514139</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9134736869536462</v>
+        <v>0.9148350784305268</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9024102607984801</v>
+        <v>0.9048894122532414</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8460658146209659</v>
+        <v>0.8388015500941184</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8942936317398154</v>
+        <v>0.8990730309031922</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8783713561291486</v>
+        <v>0.8873445996254596</v>
       </c>
       <c r="L16" t="n">
-        <v>0.756026155003486</v>
+        <v>0.7736757366702139</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8999842851566917</v>
+        <v>0.8951998819470308</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7510071838482744</v>
+        <v>0.729127209509567</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9983689815699656</v>
+        <v>0.9983193163137921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8425241928121482</v>
+        <v>0.839491057028088</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8485726109956355</v>
+        <v>0.8549620276556377</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7706683804627249</v>
+        <v>0.775553502570694</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9098495999396135</v>
+        <v>0.9162566766591902</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9015382684120704</v>
+        <v>0.9003696031489894</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8370522652302128</v>
+        <v>0.8167915972830113</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8955415249071951</v>
+        <v>0.9008957857386619</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8906775287109949</v>
+        <v>0.8790759106856795</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7555215863638032</v>
+        <v>0.7764107280466772</v>
       </c>
       <c r="M17" t="n">
-        <v>0.893304518528503</v>
+        <v>0.8925283585846164</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7236886904201489</v>
+        <v>0.7271393898655409</v>
       </c>
       <c r="C18" t="n">
-        <v>0.998270507355139</v>
+        <v>0.9983108675115926</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8546077607193938</v>
+        <v>0.8565334857429781</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8345887254631726</v>
+        <v>0.839733490901157</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8473272814910026</v>
+        <v>0.7899413560411311</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9129985478490914</v>
+        <v>0.9129129554146538</v>
       </c>
       <c r="H18" t="n">
-        <v>0.909114285950085</v>
+        <v>0.9068362465625257</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8225948414113045</v>
+        <v>0.8509739975843438</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8965809701787251</v>
+        <v>0.9034020037822396</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8798333464948895</v>
+        <v>0.8814532755352994</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8269295163480238</v>
+        <v>0.8360346868004844</v>
       </c>
       <c r="M18" t="n">
-        <v>0.892553272360593</v>
+        <v>0.8927529019757902</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7392970294645066</v>
+        <v>0.7398233377634826</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9983047592559483</v>
+        <v>0.9983105820790857</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8569414541553817</v>
+        <v>0.8300759258695718</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8440559945524186</v>
+        <v>0.8411124681752077</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7922067802056554</v>
+        <v>0.821170469151671</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9108266117437313</v>
+        <v>0.9122801105647573</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8979679862600931</v>
+        <v>0.9072078478011676</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8293921175042832</v>
+        <v>0.819162572510524</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8910014962050934</v>
+        <v>0.9019747224792893</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8890145895850725</v>
+        <v>0.8885774378962568</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7813669681846538</v>
+        <v>0.7753132912553666</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8890043369134643</v>
+        <v>0.8997421743593805</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7226806854980853</v>
+        <v>0.7417129022440494</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9982364838003351</v>
+        <v>0.9982185586389116</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8443586242049846</v>
+        <v>0.8462120751042268</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8578030624786961</v>
+        <v>0.8174043082169498</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8266468508997429</v>
+        <v>0.8168934768637532</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9181913801903612</v>
+        <v>0.9152729252933056</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9041151525128801</v>
+        <v>0.8976493778339752</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8392714211726406</v>
+        <v>0.808249840733883</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9023910594294451</v>
+        <v>0.9001059563567108</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8851116005956544</v>
+        <v>0.8857669755871934</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8332010751899013</v>
+        <v>0.7627128362261936</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8893713359980427</v>
+        <v>0.9023705777249124</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7258787679076193</v>
+        <v>0.7365182420700693</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9983619599302997</v>
+        <v>0.9983440918553775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8553338303764342</v>
+        <v>0.8555154666626091</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8606076040968669</v>
+        <v>0.8482946414775555</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8168838367609256</v>
+        <v>0.8055149421593829</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9198888511473429</v>
+        <v>0.9154160286548194</v>
       </c>
       <c r="H21" t="n">
-        <v>0.903607594304402</v>
+        <v>0.9126800072452469</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8345361968884735</v>
+        <v>0.8403951721467342</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9008069299331924</v>
+        <v>0.8940348881050205</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8868461056835361</v>
+        <v>0.8853619051916699</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8208265293016769</v>
+        <v>0.7721528567758981</v>
       </c>
       <c r="M21" t="n">
-        <v>0.888906917661248</v>
+        <v>0.8932824794189853</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Error_Only/metrics.xlsx
+++ b/models/Random Forests/Error_Only/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7336830742754298</v>
+        <v>0.7234226625123982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9982908301496192</v>
+        <v>0.9983881055479173</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8548169752898572</v>
+        <v>0.8440790374608198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.836295365130044</v>
+        <v>0.8441615919112424</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8144705976863752</v>
+        <v>0.8460098007712081</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9133595637077294</v>
+        <v>0.9134689692604095</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9051828273750443</v>
+        <v>0.9076387401784121</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8271974640414101</v>
+        <v>0.8356056580549259</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8985162384450197</v>
+        <v>0.9030659537338811</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8887970713657183</v>
+        <v>0.888450170348142</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8095838226120142</v>
+        <v>0.7739016458111628</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8928595840421515</v>
+        <v>0.9008466850943433</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.74948737626418</v>
+        <v>0.726499499692371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9982420211909661</v>
+        <v>0.9982850073264816</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8534846588661331</v>
+        <v>0.8561735415842489</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8534541594877286</v>
+        <v>0.8517762485140665</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7853936375321336</v>
+        <v>0.7925152634961441</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9212920279071773</v>
+        <v>0.9155784520933978</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9068938002318653</v>
+        <v>0.9102836027641399</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8136110793486377</v>
+        <v>0.8513905397367761</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9020239005351467</v>
+        <v>0.8976464947223004</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8792548255905778</v>
+        <v>0.8887776815730692</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8122500091739754</v>
+        <v>0.8214125169718542</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8959492116706348</v>
+        <v>0.8968547316051689</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7304009686481183</v>
+        <v>0.7254668625566267</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9983367276967036</v>
+        <v>0.9983086411380399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8571506687258452</v>
+        <v>0.860209005355893</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8363202115674142</v>
+        <v>0.8568068756303813</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8127779562982005</v>
+        <v>0.7900168701799485</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9224887494248907</v>
+        <v>0.9179993026800092</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9068199577881841</v>
+        <v>0.9019011823043968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8342753175473306</v>
+        <v>0.8550366047826917</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8992075254347415</v>
+        <v>0.9042873950681861</v>
       </c>
       <c r="K4" t="n">
-        <v>0.890324281943097</v>
+        <v>0.8834359699690891</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7871878554915417</v>
+        <v>0.8207978606289676</v>
       </c>
       <c r="M4" t="n">
-        <v>0.897997890633634</v>
+        <v>0.8938877564122629</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7388235435793125</v>
+        <v>0.7348142402658966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9982873478730369</v>
+        <v>0.9983487729484882</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8520253872371504</v>
+        <v>0.8461469332947871</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8438036479228768</v>
+        <v>0.8255504456441477</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7629024742930591</v>
+        <v>0.8567030848329048</v>
       </c>
       <c r="G5" t="n">
-        <v>0.913622631268691</v>
+        <v>0.9163921418507016</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8970102063288187</v>
+        <v>0.9047528037324314</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8511311017179601</v>
+        <v>0.8298749604837463</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9027487180174987</v>
+        <v>0.9021982590968226</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8850544888427606</v>
+        <v>0.8822075384693485</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7918184195075409</v>
+        <v>0.7940740706763054</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9000373067824881</v>
+        <v>0.895026763144732</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.747439618233531</v>
+        <v>0.7474127964897452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9982645703589987</v>
+        <v>0.9983694953484776</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8542273705912784</v>
+        <v>0.8606963802075409</v>
       </c>
       <c r="E6" t="n">
-        <v>0.835008009093796</v>
+        <v>0.8597806836031372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8165287596401027</v>
+        <v>0.7791862146529563</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9204293640010351</v>
+        <v>0.9125818182798482</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9122578022143177</v>
+        <v>0.9026144134368923</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8312701604960455</v>
+        <v>0.8267434475084821</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9014220281924383</v>
+        <v>0.8978705901813775</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8781957903702534</v>
+        <v>0.89123842253108</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8186110142747055</v>
+        <v>0.7693352996220322</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8919150964067308</v>
+        <v>0.8942585883854531</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7405264506184328</v>
+        <v>0.7322656272237416</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9982338578212732</v>
+        <v>0.9983203438708165</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8544508497915461</v>
+        <v>0.8464055985819057</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8232944667760428</v>
+        <v>0.8624182882202264</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8174285025706941</v>
+        <v>0.8132824550128536</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9156997642051991</v>
+        <v>0.9194849267454567</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9031208857270808</v>
+        <v>0.9158274328153214</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8192822022636447</v>
+        <v>0.817173067258826</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9000998090997288</v>
+        <v>0.8985091597854645</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8906461525010717</v>
+        <v>0.8864646555808759</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7713673351436645</v>
+        <v>0.8169768999302778</v>
       </c>
       <c r="M7" t="n">
-        <v>0.900245879804446</v>
+        <v>0.8957658718320376</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7445376697706907</v>
+        <v>0.7445765339300534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.998350713889534</v>
+        <v>0.9983390111567574</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8436344564985849</v>
+        <v>0.8473541964638933</v>
       </c>
       <c r="E8" t="n">
-        <v>0.823640763996891</v>
+        <v>0.8536575896936978</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8016637210796915</v>
+        <v>0.7678470437017996</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9122095698182655</v>
+        <v>0.9171600025879917</v>
       </c>
       <c r="H8" t="n">
-        <v>0.908648644187579</v>
+        <v>0.9118551437125983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8590660615675244</v>
+        <v>0.8306580789479501</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9017085276239101</v>
+        <v>0.9085610426343939</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8901025332235283</v>
+        <v>0.8855794234110242</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8502314135261091</v>
+        <v>0.8730275953176031</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9103484159629589</v>
+        <v>0.901912547535804</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7473364366273355</v>
+        <v>0.7468982569150833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.998323540714892</v>
+        <v>0.9984297786939019</v>
       </c>
       <c r="D9" t="n">
-        <v>0.850520944280454</v>
+        <v>0.8520125490703265</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8331887840075906</v>
+        <v>0.8530729219643283</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8143235861182518</v>
+        <v>0.8110853149100256</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9100326913676098</v>
+        <v>0.9091691288532321</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9005116412612464</v>
+        <v>0.912573587252883</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8393516547821633</v>
+        <v>0.8172340832373253</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8972331382603784</v>
+        <v>0.9010565458227712</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8913293782856884</v>
+        <v>0.8824428600437716</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8009430846574439</v>
+        <v>0.7906693791053538</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8958386967156615</v>
+        <v>0.8932007111286004</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7323017544704731</v>
+        <v>0.7394505702631159</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9984414243401771</v>
+        <v>0.9983375839942238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8597920026779464</v>
+        <v>0.8531242392197438</v>
       </c>
       <c r="E10" t="n">
-        <v>0.848240289895808</v>
+        <v>0.8488451453555409</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7861134318766066</v>
+        <v>0.7975120501285347</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9097631088969405</v>
+        <v>0.9124847685904073</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9024476163876364</v>
+        <v>0.9106119844548626</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8463204482320259</v>
+        <v>0.8398590002411812</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9022360740412887</v>
+        <v>0.9045375697993089</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8747645021547348</v>
+        <v>0.8885173295390446</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7553920039631573</v>
+        <v>0.8207818061722505</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8927806904182256</v>
+        <v>0.9026487815566511</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7367834489040307</v>
+        <v>0.7334274466356776</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9982387101738878</v>
+        <v>0.9982276924791275</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8543890363957274</v>
+        <v>0.8516288305285902</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8327407716837576</v>
+        <v>0.834042880292194</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7667922557840615</v>
+        <v>0.8325899742930591</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9189255431188176</v>
+        <v>0.9143956590033356</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9002497177698365</v>
+        <v>0.9069667739409147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8563088119564413</v>
+        <v>0.8388471919677991</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9025501429889229</v>
+        <v>0.90574876570531</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8875057111752893</v>
+        <v>0.8797586076577694</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8313146765256321</v>
+        <v>0.8082788246302888</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8852356491859263</v>
+        <v>0.9078937702144948</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7261732597067343</v>
+        <v>0.7575016038308019</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9982900309386004</v>
+        <v>0.9983584776537174</v>
       </c>
       <c r="D12" t="n">
-        <v>0.855746078177779</v>
+        <v>0.8536477511335625</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8472689494848635</v>
+        <v>0.8554092635283028</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8214685089974292</v>
+        <v>0.8248015745501285</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9103186734385783</v>
+        <v>0.9149656012767426</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9094113931940724</v>
+        <v>0.9007179657362375</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8295814111698636</v>
+        <v>0.8300325450581382</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9013219955560919</v>
+        <v>0.9079694157199891</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8862964931973556</v>
+        <v>0.8847520080774351</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8294466258118968</v>
+        <v>0.8459322593666287</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8899520186227282</v>
+        <v>0.9147028968333315</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7415407504395481</v>
+        <v>0.7388752712280416</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9982576058058341</v>
+        <v>0.9982996214708268</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8481301923252488</v>
+        <v>0.8487930221234899</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8548308074082759</v>
+        <v>0.8490097530031191</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7329233611825193</v>
+        <v>0.8475698907455014</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9090693833390844</v>
+        <v>0.9072553179635381</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9004603859179853</v>
+        <v>0.9059790226648522</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8102158043875773</v>
+        <v>0.840396613469061</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9074482028401072</v>
+        <v>0.8982656911528677</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8903574208614425</v>
+        <v>0.8881286523318519</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8291209496899197</v>
+        <v>0.7854665883820777</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8998431070928243</v>
+        <v>0.8943116100112496</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7324213575524557</v>
+        <v>0.741111602538979</v>
       </c>
       <c r="C14" t="n">
-        <v>0.99822695035461</v>
+        <v>0.9984228712272387</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8578477336356167</v>
+        <v>0.8510225837619062</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8483963565805401</v>
+        <v>0.8461850236545848</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8234768637532134</v>
+        <v>0.8558973329048843</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9147667842046239</v>
+        <v>0.9168888475529101</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9072243537591668</v>
+        <v>0.9035530812062728</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8512473683856518</v>
+        <v>0.8373285186761742</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8969775613943319</v>
+        <v>0.9094836900232626</v>
       </c>
       <c r="K14" t="n">
-        <v>0.891489784752149</v>
+        <v>0.880853073317389</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7776583886829841</v>
+        <v>0.7621119408462075</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8961612981738203</v>
+        <v>0.8973619505314619</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7359640172622552</v>
+        <v>0.7309316560073043</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9982960250212419</v>
+        <v>0.9983462040559273</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8567460287270625</v>
+        <v>0.8477607384133166</v>
       </c>
       <c r="E15" t="n">
-        <v>0.874082914114407</v>
+        <v>0.8467557152629335</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8044866645244215</v>
+        <v>0.8070099614395887</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9161117760812053</v>
+        <v>0.917584594979296</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9063590940661516</v>
+        <v>0.9014709414781259</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8265834607302123</v>
+        <v>0.8107140214718591</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8978810218901958</v>
+        <v>0.9030870034320322</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8918529026872138</v>
+        <v>0.8822859789941562</v>
       </c>
       <c r="L15" t="n">
-        <v>0.735830795200176</v>
+        <v>0.7403661792227808</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8900628529850856</v>
+        <v>0.8952896354220233</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7303404828789694</v>
+        <v>0.7323113336646822</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9982417928449605</v>
+        <v>0.9983092690895549</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8455112062931743</v>
+        <v>0.847543916040291</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8517521785278641</v>
+        <v>0.8497621341847379</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7800048200514139</v>
+        <v>0.7838022172236504</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9148350784305268</v>
+        <v>0.9134826730360018</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9048894122532414</v>
+        <v>0.9130057827320749</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8388015500941184</v>
+        <v>0.8336589120322548</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8990730309031922</v>
+        <v>0.9017256654312544</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8873445996254596</v>
+        <v>0.8865083707497574</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7736757366702139</v>
+        <v>0.8340152654948442</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8951998819470308</v>
+        <v>0.9017225001421362</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.729127209509567</v>
+        <v>0.7381549158235151</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9983193163137921</v>
+        <v>0.998285578191495</v>
       </c>
       <c r="D17" t="n">
-        <v>0.839491057028088</v>
+        <v>0.8514795274033049</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8549620276556377</v>
+        <v>0.8358589995737282</v>
       </c>
       <c r="F17" t="n">
-        <v>0.775553502570694</v>
+        <v>0.7869770244215939</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9162566766591902</v>
+        <v>0.9129178977599494</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9003696031489894</v>
+        <v>0.9098262139806333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8167915972830113</v>
+        <v>0.8194071168652969</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9008957857386619</v>
+        <v>0.8942425908788117</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8790759106856795</v>
+        <v>0.8781624751810654</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7764107280466772</v>
+        <v>0.834649416535173</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8925283585846164</v>
+        <v>0.8884607055453594</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7271393898655409</v>
+        <v>0.727185643689008</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9983108675115926</v>
+        <v>0.9983457473639166</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8565334857429781</v>
+        <v>0.8458469005812361</v>
       </c>
       <c r="E18" t="n">
-        <v>0.839733490901157</v>
+        <v>0.8334318132231187</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7899413560411311</v>
+        <v>0.8195276349614397</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9129129554146538</v>
+        <v>0.9101737728605935</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9068362465625257</v>
+        <v>0.8965523831779963</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8509739975843438</v>
+        <v>0.8177366242885873</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9034020037822396</v>
+        <v>0.8995882828066066</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8814532755352994</v>
+        <v>0.8860676936440965</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8360346868004844</v>
+        <v>0.7630018164471027</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8927529019757902</v>
+        <v>0.8925254839181576</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7398233377634826</v>
+        <v>0.7334882060960898</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9983105820790857</v>
+        <v>0.9982369975788473</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8300759258695718</v>
+        <v>0.8500706574662975</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8411124681752077</v>
+        <v>0.8342812508007152</v>
       </c>
       <c r="F19" t="n">
-        <v>0.821170469151671</v>
+        <v>0.8010178341902314</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9122801105647573</v>
+        <v>0.9143383727283184</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9072078478011676</v>
+        <v>0.9056115479157101</v>
       </c>
       <c r="I19" t="n">
-        <v>0.819162572510524</v>
+        <v>0.8209627840966416</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9019747224792893</v>
+        <v>0.8984622170957823</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8885774378962568</v>
+        <v>0.8888651119108323</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7753132912553666</v>
+        <v>0.7981610766577374</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8997421743593805</v>
+        <v>0.8989420588616703</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7417129022440494</v>
+        <v>0.7460884044675172</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9982185586389116</v>
+        <v>0.9984209302861928</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8462120751042268</v>
+        <v>0.8559305673899151</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8174043082169498</v>
+        <v>0.8552524203924029</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8168934768637532</v>
+        <v>0.8307189910025707</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9152729252933056</v>
+        <v>0.917615372311364</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8976493778339752</v>
+        <v>0.9092511116545529</v>
       </c>
       <c r="I20" t="n">
-        <v>0.808249840733883</v>
+        <v>0.8392646950017826</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9001059563567108</v>
+        <v>0.8989212122837843</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8857669755871934</v>
+        <v>0.8913945984973263</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7627128362261936</v>
+        <v>0.8020038255476863</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9023705777249124</v>
+        <v>0.8948942090802408</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7365182420700693</v>
+        <v>0.717840455509843</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9983440918553775</v>
+        <v>0.9983384973782453</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8555154666626091</v>
+        <v>0.8497240269620524</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8482946414775555</v>
+        <v>0.8627327509431941</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8055149421593829</v>
+        <v>0.8289725257069409</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9154160286548194</v>
+        <v>0.9227104810070162</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9126800072452469</v>
+        <v>0.9093136605480239</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8403951721467342</v>
+        <v>0.8289491511091936</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8940348881050205</v>
+        <v>0.9049684366296044</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8853619051916699</v>
+        <v>0.8847819741206201</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7721528567758981</v>
+        <v>0.7042665865472827</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8932824794189853</v>
+        <v>0.9014085226833541</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Error_Only/metrics.xlsx
+++ b/models/Random Forests/Error_Only/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7234226625123982</v>
+        <v>0.7356224817846162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9983881055479173</v>
+        <v>0.9988182508724252</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8440790374608198</v>
+        <v>0.8405261997501285</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8441615919112424</v>
+        <v>0.8876760581673845</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8460098007712081</v>
+        <v>0.853831940874036</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9134689692604095</v>
+        <v>0.9241475229613577</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9076387401784121</v>
+        <v>0.9089857107209354</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8356056580549259</v>
+        <v>0.7974641995172967</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9030659537338811</v>
+        <v>0.9154805356586733</v>
       </c>
       <c r="K2" t="n">
-        <v>0.888450170348142</v>
+        <v>0.9184923732371371</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7739016458111628</v>
+        <v>0.9314224967907574</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9008466850943433</v>
+        <v>0.9298814320248647</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.726499499692371</v>
+        <v>0.7956156729513836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9982850073264816</v>
+        <v>0.9975639442925405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8561735415842489</v>
+        <v>0.8437186742118028</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8517762485140665</v>
+        <v>0.9114708617563474</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7925152634961441</v>
+        <v>0.9094533258354756</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9155784520933978</v>
+        <v>0.9150548569726809</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9102836027641399</v>
+        <v>0.9036824165910293</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8513905397367761</v>
+        <v>0.9317843925985519</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8976464947223004</v>
+        <v>0.9259769542198693</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8887776815730692</v>
+        <v>0.8515201058989578</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8214125169718542</v>
+        <v>0.9157172657252888</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8968547316051689</v>
+        <v>0.934467595257281</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7254668625566267</v>
+        <v>0.7590244304654191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9983086411380399</v>
+        <v>0.9982582739797172</v>
       </c>
       <c r="D4" t="n">
-        <v>0.860209005355893</v>
+        <v>0.8929433379878005</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8568068756303813</v>
+        <v>0.8333148759664948</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7900168701799485</v>
+        <v>0.8551373714652957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9179993026800092</v>
+        <v>0.9080500191674666</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9019011823043968</v>
+        <v>0.8988996763754045</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8550366047826917</v>
+        <v>0.8387063555913113</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9042873950681861</v>
+        <v>0.9040993020584858</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8834359699690891</v>
+        <v>0.8763730483646149</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8207978606289676</v>
+        <v>0.9216284170545124</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8938877564122629</v>
+        <v>0.9034948774030159</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7348142402658966</v>
+        <v>0.7579937541012329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9983487729484882</v>
+        <v>0.9977198213073117</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8461469332947871</v>
+        <v>0.9029090048050269</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8255504456441477</v>
+        <v>0.9187741623711341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8567030848329048</v>
+        <v>0.7789002249357326</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9163921418507016</v>
+        <v>0.9415649395853016</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9047528037324314</v>
+        <v>0.8773462783171522</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8298749604837463</v>
+        <v>0.8945132743362831</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9021982590968226</v>
+        <v>0.917643392133188</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8822075384693485</v>
+        <v>0.9017914281456286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7940740706763054</v>
+        <v>0.9003013605806094</v>
       </c>
       <c r="M5" t="n">
-        <v>0.895026763144732</v>
+        <v>0.9200874870496144</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7474127964897452</v>
+        <v>0.715618615688119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9983694953484776</v>
+        <v>0.9981274815304908</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8606963802075409</v>
+        <v>0.8727037516170764</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8597806836031372</v>
+        <v>0.7953213335550382</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7791862146529563</v>
+        <v>0.8680449542021534</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9125818182798482</v>
+        <v>0.90839955891859</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9026144134368923</v>
+        <v>0.8885003565355714</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8267434475084821</v>
+        <v>0.8834631477309303</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8978705901813775</v>
+        <v>0.9233261069995764</v>
       </c>
       <c r="K6" t="n">
-        <v>0.89123842253108</v>
+        <v>0.9217560728520076</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7693352996220322</v>
+        <v>0.8992737923286792</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8942585883854531</v>
+        <v>0.8773855577047066</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7322656272237416</v>
+        <v>0.7544573289719363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9983203438708165</v>
+        <v>0.9977923787596217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8464055985819057</v>
+        <v>0.8554714485191446</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8624182882202264</v>
+        <v>0.8536827394157285</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8132824550128536</v>
+        <v>0.8331358451156812</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9194849267454567</v>
+        <v>0.91137026793267</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9158274328153214</v>
+        <v>0.887352987147601</v>
       </c>
       <c r="I7" t="n">
-        <v>0.817173067258826</v>
+        <v>0.8740209171359615</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8985091597854645</v>
+        <v>0.8940965431329805</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8864646555808759</v>
+        <v>0.8830407538133814</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8169768999302778</v>
+        <v>0.8987483953786907</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8957658718320376</v>
+        <v>0.9026361229423276</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7445765339300534</v>
+        <v>0.7265446224256293</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9983390111567574</v>
+        <v>0.9981468340649253</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8473541964638933</v>
+        <v>0.8561505107665173</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8536575896936978</v>
+        <v>0.8718301736812847</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7678470437017996</v>
+        <v>0.8490118894601543</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9171600025879917</v>
+        <v>0.9406204556471158</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9118551437125983</v>
+        <v>0.8958289344875906</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8306580789479501</v>
+        <v>0.8315687851971038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9085610426343939</v>
+        <v>0.9287972594207411</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8855794234110242</v>
+        <v>0.9017870449106259</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8730275953176031</v>
+        <v>0.9369784980744544</v>
       </c>
       <c r="M8" t="n">
-        <v>0.901912547535804</v>
+        <v>0.8466582249338092</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7468982569150833</v>
+        <v>0.7155676793634543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9984297786939019</v>
+        <v>0.9986137707795517</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8520125490703265</v>
+        <v>0.8745498640405673</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8530729219643283</v>
+        <v>0.874486549613402</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8110853149100256</v>
+        <v>0.8767071015424164</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9091691288532321</v>
+        <v>0.9240176277329482</v>
       </c>
       <c r="H9" t="n">
-        <v>0.912573587252883</v>
+        <v>0.8934115426105718</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8172340832373253</v>
+        <v>0.8676878519710378</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9010565458227712</v>
+        <v>0.9312611047304924</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8824428600437716</v>
+        <v>0.9271922749866311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7906693791053538</v>
+        <v>0.8859644430178856</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8932007111286004</v>
+        <v>0.9570323471854495</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7394505702631159</v>
+        <v>0.8044394666593374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9983375839942238</v>
+        <v>0.9980968423274487</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8531242392197438</v>
+        <v>0.8814336536684532</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8488451453555409</v>
+        <v>0.8240425660438144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7975120501285347</v>
+        <v>0.853515625</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9124847685904073</v>
+        <v>0.9202488687782806</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9106119844548626</v>
+        <v>0.8806850053937433</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8398590002411812</v>
+        <v>0.855668543845535</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9045375697993089</v>
+        <v>0.8953185891961403</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8885173295390446</v>
+        <v>0.8936802517730186</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8207818061722505</v>
+        <v>0.8839672604718344</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9026487815566511</v>
+        <v>0.8999263266950617</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7334274466356776</v>
+        <v>0.7365574035201033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9982276924791275</v>
+        <v>0.9980109491717158</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8516288305285902</v>
+        <v>0.8692931906385981</v>
       </c>
       <c r="E11" t="n">
-        <v>0.834042880292194</v>
+        <v>0.8125935317592284</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8325899742930591</v>
+        <v>0.9077012694841716</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9143956590033356</v>
+        <v>0.943304244774833</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9069667739409147</v>
+        <v>0.904026109374143</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8388471919677991</v>
+        <v>0.8449114901834567</v>
       </c>
       <c r="J11" t="n">
-        <v>0.90574876570531</v>
+        <v>0.929129600558172</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8797586076577694</v>
+        <v>0.8826796528910197</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8082788246302888</v>
+        <v>0.9715134007382442</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9078937702144948</v>
+        <v>0.9318964723220042</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7575016038308019</v>
+        <v>0.7360313627493648</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9983584776537174</v>
+        <v>0.997644486536253</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8536477511335625</v>
+        <v>0.8858705078268537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8554092635283028</v>
+        <v>0.8867201097262558</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8248015745501285</v>
+        <v>0.8325132551413882</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9149656012767426</v>
+        <v>0.9150200070333514</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9007179657362375</v>
+        <v>0.9009512475355038</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8300325450581382</v>
+        <v>0.8422397425583266</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9079694157199891</v>
+        <v>0.9254886328246652</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8847520080774351</v>
+        <v>0.915298173441939</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8459322593666287</v>
+        <v>0.9556623074454429</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9147028968333315</v>
+        <v>0.9085484056636354</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7388752712280416</v>
+        <v>0.7744380957729078</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9982996214708268</v>
+        <v>0.9988935856434839</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8487930221234899</v>
+        <v>0.8792415668405966</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8490097530031191</v>
+        <v>0.8489965139054131</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8475698907455014</v>
+        <v>0.876004177377892</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9072553179635381</v>
+        <v>0.9197659351347585</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9059790226648522</v>
+        <v>0.9060543656201755</v>
       </c>
       <c r="I13" t="n">
-        <v>0.840396613469061</v>
+        <v>0.8598165728077232</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8982656911528677</v>
+        <v>0.9057664279040798</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8881286523318519</v>
+        <v>0.9009345057025888</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7854665883820777</v>
+        <v>0.9833921694480102</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8943116100112496</v>
+        <v>0.8994543570852997</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.741111602538979</v>
+        <v>0.7884949033053791</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9984228712272387</v>
+        <v>0.9988626879724045</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8510225837619062</v>
+        <v>0.8911148673476886</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8461850236545848</v>
+        <v>0.8495892396907216</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8558973329048843</v>
+        <v>0.8847003534704371</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9168888475529101</v>
+        <v>0.9299151879203774</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9035530812062728</v>
+        <v>0.8911057173678534</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8373285186761742</v>
+        <v>0.8731005631536605</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9094836900232626</v>
+        <v>0.9054073288767167</v>
       </c>
       <c r="K14" t="n">
-        <v>0.880853073317389</v>
+        <v>0.8745167483409455</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7621119408462075</v>
+        <v>0.8704862782859895</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8973619505314619</v>
+        <v>0.8435478300909405</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7309316560073043</v>
+        <v>0.7167254724792232</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9983462040559273</v>
+        <v>0.9980239377102951</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8477607384133166</v>
+        <v>0.8640269820735539</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8467557152629335</v>
+        <v>0.8504600918170102</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8070099614395887</v>
+        <v>0.7386377329691516</v>
       </c>
       <c r="G15" t="n">
-        <v>0.917584594979296</v>
+        <v>0.9234218835463179</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9014709414781259</v>
+        <v>0.8788376483279396</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8107140214718591</v>
+        <v>0.8259501206757844</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9030870034320322</v>
+        <v>0.915991793542814</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8822859789941562</v>
+        <v>0.8849093985324928</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7403661792227808</v>
+        <v>0.8663225093172132</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8952896354220233</v>
+        <v>0.9144192471509152</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7323113336646822</v>
+        <v>0.7709229915964028</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9983092690895549</v>
+        <v>0.9973211471793254</v>
       </c>
       <c r="D16" t="n">
-        <v>0.847543916040291</v>
+        <v>0.8432553216511819</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8497621341847379</v>
+        <v>0.895639341536415</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7838022172236504</v>
+        <v>0.8987626546681665</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9134826730360018</v>
+        <v>0.9380125353308745</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9130057827320749</v>
+        <v>0.891103066205913</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8336589120322548</v>
+        <v>0.8896556163501771</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9017256654312544</v>
+        <v>0.9245147143106326</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8865083707497574</v>
+        <v>0.9084906624485135</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8340152654948442</v>
+        <v>0.864849141389825</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9017225001421362</v>
+        <v>0.9475799023671364</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7381549158235151</v>
+        <v>0.7499824514607404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.998285578191495</v>
+        <v>0.9984151924890192</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8514795274033049</v>
+        <v>0.8802645697067686</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8358589995737282</v>
+        <v>0.784677809007736</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7869770244215939</v>
+        <v>0.9201277313624678</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9129178977599494</v>
+        <v>0.9406014465892998</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9098262139806333</v>
+        <v>0.9098056098651143</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8194071168652969</v>
+        <v>0.8306291230893</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8942425908788117</v>
+        <v>0.9100965431329805</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8781624751810654</v>
+        <v>0.9137832608826032</v>
       </c>
       <c r="L17" t="n">
-        <v>0.834649416535173</v>
+        <v>0.8354260269576381</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8884607055453594</v>
+        <v>0.9000345343616899</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.727185643689008</v>
+        <v>0.7285732335640381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9983457473639166</v>
+        <v>0.9981700941094458</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8458469005812361</v>
+        <v>0.8827221283163078</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8334318132231187</v>
+        <v>0.9027322461151606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8195276349614397</v>
+        <v>0.8670770404884318</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9101737728605935</v>
+        <v>0.9244184020352364</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8965523831779963</v>
+        <v>0.9174150417216237</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8177366242885873</v>
+        <v>0.8965341914722446</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8995882828066066</v>
+        <v>0.9017900965431331</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8860676936440965</v>
+        <v>0.8787597198236186</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7630018164471027</v>
+        <v>0.8672376444159178</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8925254839181576</v>
+        <v>0.9371336479797399</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7334882060960898</v>
+        <v>0.7779442129239945</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9982369975788473</v>
+        <v>0.9983586046195143</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8500706574662975</v>
+        <v>0.8574733593003601</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8342812508007152</v>
+        <v>0.8293834568298969</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8010178341902314</v>
+        <v>0.8588327442159384</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9143383727283184</v>
+        <v>0.9478581544105766</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9056115479157101</v>
+        <v>0.9083171521035598</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8209627840966416</v>
+        <v>0.9102493966210781</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8984622170957823</v>
+        <v>0.923712342079689</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8888651119108323</v>
+        <v>0.8816504633079397</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7981610766577374</v>
+        <v>0.9839690436705362</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8989420588616703</v>
+        <v>0.9269667318982387</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7460884044675172</v>
+        <v>0.7876291351594628</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9984209302861928</v>
+        <v>0.9977276325162925</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8559305673899151</v>
+        <v>0.8748123036407318</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8552524203924029</v>
+        <v>0.8181731233891752</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8307189910025707</v>
+        <v>0.7639781491002571</v>
       </c>
       <c r="G20" t="n">
-        <v>0.917615372311364</v>
+        <v>0.8881116055889812</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9092511116545529</v>
+        <v>0.8894390507011866</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8392646950017826</v>
+        <v>0.8634014481094128</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8989212122837843</v>
+        <v>0.9125119023078206</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8913945984973263</v>
+        <v>0.9110751198814775</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8020038255476863</v>
+        <v>0.9609657804169118</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8948942090802408</v>
+        <v>0.8800023022907794</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,1270 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.717840455509843</v>
+        <v>0.7417929780467428</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9983384973782453</v>
+        <v>0.9984499456993994</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8497240269620524</v>
+        <v>0.8748529930612725</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8627327509431941</v>
+        <v>0.8884685733288993</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8289725257069409</v>
+        <v>0.8276655150249075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9227104810070162</v>
+        <v>0.9008580807888766</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9093136605480239</v>
+        <v>0.8564944325599253</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8289491511091936</v>
+        <v>0.7942066301898938</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9049684366296044</v>
+        <v>0.9449004510229</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8847819741206201</v>
+        <v>0.8582616113996774</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7042665865472827</v>
+        <v>0.8385893115069811</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9014085226833541</v>
+        <v>0.912208713272543</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7968405609917031</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9980336583259156</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8635996178437569</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8466949641259567</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8648126205012853</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9170254626329447</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8677384768522455</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.791813354786806</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9004746184989101</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9152048797066135</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.9501765083440308</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8882030620467365</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8006064775168116</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9985898164053441</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.885179686925847</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8190711714005163</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8712443766066837</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9423740412306464</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8813778693042376</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9105454545454545</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.935212706322018</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.920203206774728</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.8671774711168165</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9242661448140901</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7461237979736902</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9982461232101916</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8633850224149334</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8307727931701031</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8431374517994858</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8891439270812542</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8909924487594391</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.7347514078841513</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9238620412089801</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9141236598258979</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.93412863995435</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8907632093933464</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7165347973518489</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9988873366762994</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8626900064683053</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8631252013530929</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8350036150385605</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9415525085773955</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9154584681769148</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9051134352373289</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9112897684326257</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8604882047146076</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.8798302394835856</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8893634165995165</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7735170845063501</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.997068602425682</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8790456309537811</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8643893415364151</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7905652418447693</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.92436341052258</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8924291042729418</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8940070807853234</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9110762253619397</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8656374550673379</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8782699406194833</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.936642258450769</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7373685614409456</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9985512811077059</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8759873594473432</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8851978657411977</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8660628213367609</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9216731772689687</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.865599609519605</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8705132743362831</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9124135783245095</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8839070527842626</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.8966824454428755</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9082951536779095</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7436684870351392</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9983120845304734</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8571088410377011</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7950165992134207</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9408740359897172</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8942066728129286</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9021961780086049</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8407337087691069</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8981376518218623</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8947234617036759</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9443497272143774</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9309980430528375</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7644938863713664</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9982065464180225</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8642081281693246</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8273598582474228</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8500712965938304</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9098938977756235</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9180501618122977</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8467192276749799</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.909137536688557</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.897528732105443</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.8872483460832041</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9315759180384484</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7791191839791666</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.997455628861341</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8721961051561633</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8390534391108248</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8674987949871465</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9338266371637413</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9066693635382956</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8624038616251006</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9441376839336023</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9269994126465096</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.7704399151197419</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8700794290318868</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7632846341240813</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9980373863635573</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8564653651652357</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8499958430329232</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8315422625743212</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.952463338276487</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8843371180955515</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8803604763437399</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.9006877476265231</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8780430909228246</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9273391108971273</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9076977986552455</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7922533728292457</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9975570009956688</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8496832512677298</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8685311124849983</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9090918219794344</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9168480447599948</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8944496392717979</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8396588897827836</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9058336966677047</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.919089897399104</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9556923940949936</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9248140900195695</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.755548848113883</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9978661512888842</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8894010435805101</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8893489679393596</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7625672798843186</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9024201698776133</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.914744199693429</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8470603378921964</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9390569915914045</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8604005400145524</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9708560654685494</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9287533095429953</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6984000467239951</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9985228135905315</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9036672301021532</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.8288951755798969</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9020424967866325</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.927912900497087</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9022815533980582</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8308736926790026</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9287505767097605</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9312051266316592</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.8478396547727313</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8914170599746748</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7767314504021356</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9986030086694004</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8454392672334134</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8558160840850515</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8294003052699229</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.934264830192432</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8907605177993527</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8298825422365246</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9131671427589795</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8713038370839215</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9040193298739279</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8785679751352595</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7588511573375269</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9986892718571223</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8469628366458898</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8760912038576654</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8829342760726338</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9212026439535089</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8675086391311503</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8883488896041197</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.9094764645785054</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8801736433557422</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.858891028727331</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.9504236897853919</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7109966166416307</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9983669365757604</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8771014918791797</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8548984564549899</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8638084431233933</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9142913264837362</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9042006805985539</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7917522123893805</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9193547181563375</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8672941040580553</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.9024490532734275</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.9139818119028433</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.772627086521318</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.998089899030577</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8285500110237378</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7716582068693207</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8402203165167095</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9544907315002266</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8806539449762669</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9237972646822205</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9225038928682654</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.895041246241376</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9437780808729139</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.9076735351674916</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7618003854729601</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9980739294477718</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8605629455427354</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8711642235824743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7999979916452442</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.8974603898757758</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.876895900755124</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9107578439259855</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9154199919506043</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9014013202303828</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9356265268638885</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8972855991711752</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7275716234183413</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9982402214078506</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8875612178894843</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8729512322809277</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8947371063624678</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9223947715180747</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.905601402373247</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8139275945293645</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.9228239636402902</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8831144637988623</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.842079922965816</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.9084217796707723</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7775258180694894</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9977580565602848</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8649359049747147</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8809600515463918</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8345452354170015</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9013920047657072</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.903546157643574</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.8366012230447376</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8864120006977151</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9065000733141089</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.7657278125501524</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.9327645758496822</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7445424042902669</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9986901470451411</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8550275593444551</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8464196094119358</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8688142673521851</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9252310392568726</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8924506209570608</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8671214802896219</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.9222123948925569</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8795289110621937</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.9103317554557124</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8890986531598941</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7499684126293328</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9973448832762363</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8871375027559344</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9139230773227209</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8687540167095116</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9234695332325854</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8699184762489751</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8179629927594529</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9054475241357833</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9073296455716177</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.8428373716302953</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9179739841141936</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7606477457390122</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9981194080422819</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9002307635775704</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9084900531572164</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9236925610539846</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9330611869889336</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.886626213592233</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8488946098149638</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.933786357255745</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8611544564350273</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9019597353733126</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.9278047657419132</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7528506790439446</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9982857000023607</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8253759702457957</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8313869201030928</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8670971240359897</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.911857938441649</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8991612729234089</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8306291230893001</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9067816159652894</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9014955597829423</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.9160559211112894</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.9248486243812593</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7274552615505585</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9983748084173236</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8462425026461249</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7971088293980712</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8626767636188334</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9286062841426163</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9328478964401294</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8601802381718699</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9175126460840747</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9222115089820891</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.9370486278285989</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9372893064382426</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.750386067863711</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9983138203546914</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8577408686705372</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8705780890382847</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.814628856041131</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9390474561128378</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8548367194162536</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8688913917940467</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8982921208346309</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8952533480233945</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.7427090019255456</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.94310579026131</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7453110303098369</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.997469168290241</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9020239582567796</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8550439268699443</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9159754579048843</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9090479947028092</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9125998480855767</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7935124698310538</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9095907816879477</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8609089952748726</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.7982790436456997</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.9141222516403822</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7354648865740663</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.99787639265177</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8715749246711251</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8701524242912371</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8527273457583547</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9253371731630122</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.897378640776699</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9150635559131134</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.931209568964671</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9088002209150441</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.9568644234026997</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.9275353977207321</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7373836624053924</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9984717803585241</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8513098318240621</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8552875322164948</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8430872429305912</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9132983814827706</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.8997033441208198</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.8528720836685439</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.8887048325823835</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9019426497532239</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.8733215642219012</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9141752043283067</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8011078426554525</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9986607475185566</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8872662589674233</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8440669687396076</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8661718624457657</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.9245582848524025</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9043140804124843</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.8655294496298681</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.9498218334953029</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9089749798941611</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9127547745145241</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8845583494519663</v>
       </c>
     </row>
   </sheetData>
